--- a/updatedFile/mst_Commercials.xlsx
+++ b/updatedFile/mst_Commercials.xlsx
@@ -457,7 +457,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I2" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I3" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I4" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I5" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +573,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I6" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I7" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="8">
@@ -631,7 +631,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I8" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="9">
@@ -660,7 +660,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I9" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="10">
@@ -689,7 +689,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I10" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
     <row r="11">
@@ -718,7 +718,7 @@
         <v>2013-10-21T13:28:06.419Z</v>
       </c>
       <c r="I11" t="str">
-        <v>Isert</v>
+        <v>update</v>
       </c>
     </row>
   </sheetData>
